--- a/ConvertedEqual/Puerto Rico_Converted.xlsx
+++ b/ConvertedEqual/Puerto Rico_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="278">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -813,6 +813,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1590,7 +1626,7 @@
         <v>0.2</v>
       </c>
       <c r="AC7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -2663,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2752,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2841,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2930,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3019,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3108,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3197,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3286,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3375,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3464,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3553,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3642,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3731,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3820,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="AC33">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3909,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3998,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4087,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4176,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4265,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4354,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4443,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4532,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4621,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4710,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4799,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="AC44">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4888,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="AC45">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4977,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="AC46">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5066,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5155,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5244,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5333,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5422,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5511,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="AC52">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5600,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="AC53">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5689,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="AC54">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5778,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="AC55">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5867,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5956,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6045,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6134,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6223,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6312,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6401,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="AC62">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6490,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6579,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6668,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6757,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="AC66">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6846,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="AC67">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6935,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="AC68">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7024,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7113,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7202,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AC71">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7291,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="AC72">
-        <v>0.6999999999923077</v>
+        <v>0.758333333325</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7380,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="AC73">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7469,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7558,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7647,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7736,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7825,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7914,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8003,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="AC80">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8092,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8181,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8270,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8359,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="AC84">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8448,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="AC85">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8537,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8626,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="AC87">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8715,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="AC88">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8804,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="AC89">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8893,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="AC90">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8982,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9071,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9160,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="AC93">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9249,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="AC94">
-        <v>0.7769230769153845</v>
+        <v>0.8416666666583333</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9338,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="AC95">
-        <v>0.751282051276923</v>
+        <v>0.8138888888833332</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9427,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="AC96">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9516,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9605,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9694,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9783,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="AC100">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9872,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="AC101">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9961,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="AC102">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10050,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="AC103">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10139,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="AC104">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10228,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10317,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="AC106">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10406,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10495,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="AC108">
-        <v>0.6294871794846154</v>
+        <v>0.6819444444416667</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10584,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="AC109">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10673,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="AC110">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10762,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="AC111">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10851,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10940,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11029,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="AC114">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11118,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11207,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.6038461538461539</v>
+        <v>0.6541666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11296,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11385,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11474,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11563,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11652,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11741,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11830,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11919,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12008,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12097,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12186,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="AC127">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12275,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12364,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12453,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12542,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12631,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12720,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12809,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12898,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12987,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13076,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13165,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="AC138">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13254,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13343,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13432,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13521,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="AC142">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13610,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="AC143">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13699,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13788,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13877,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="AC146">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13966,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="AC147">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14055,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="AC148">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14144,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14233,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14322,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14411,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14500,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14589,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14678,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="AC155">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14767,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14856,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14945,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15034,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="AC159">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15123,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="AC160">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15212,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="AC161">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15301,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="AC162">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15390,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="AC163">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15479,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="AC164">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15568,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="AC165">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15657,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="AC166">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15746,7 +15782,7 @@
         <v>0</v>
       </c>
       <c r="AC167">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15835,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="AC168">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15924,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="AC169">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16013,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="AC170">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16102,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="AC171">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16191,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16280,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16369,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="AC174">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16458,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="AC175">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16547,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.4538461538461539</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16636,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16725,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="AC178">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16814,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="AC179">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16903,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="AC180">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16992,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="AC181">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17081,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17170,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="AC183">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17259,7 +17295,7 @@
         <v>0</v>
       </c>
       <c r="AC184">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17348,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="AC185">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17437,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="AC186">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17526,7 +17562,7 @@
         <v>0</v>
       </c>
       <c r="AC187">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17615,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="AC188">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17704,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17793,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="AC190">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17882,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="AC191">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17971,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="AC192">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18060,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18149,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18238,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="AC195">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18327,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="AC196">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18416,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18505,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="AC198">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18594,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="AC199">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18683,7 +18719,7 @@
         <v>0</v>
       </c>
       <c r="AC200">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18772,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="AC201">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18861,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="AC202">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18950,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="AC203">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19039,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="AC204">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19128,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="AC205">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19217,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19306,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19395,7 +19431,7 @@
         <v>0</v>
       </c>
       <c r="AC208">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19484,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="AC209">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19573,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="AC210">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19662,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="AC211">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19751,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC212">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19840,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="AC213">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19929,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="AC214">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20018,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="AC215">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20107,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="AC216">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20196,7 +20232,7 @@
         <v>0</v>
       </c>
       <c r="AC217">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20285,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="AC218">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20374,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="AC219">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20463,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20552,7 +20588,1075 @@
         <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.376923076923077</v>
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>1</v>
+      </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>1</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
+      <c r="W224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>1</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>1</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>1</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>1</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="W229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>1</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>1</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>1</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0.4083333333333334</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>1</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>1</v>
+      </c>
+      <c r="W233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0.4083333333333334</v>
       </c>
     </row>
   </sheetData>
